--- a/notebooks/seed_averaging.xlsx
+++ b/notebooks/seed_averaging.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,22 +467,202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7008928656578064</v>
+        <v>0.7120535373687744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.6607142686843872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7535714507102966</v>
+        <v>0.9821429252624512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7779805660247803</v>
+        <v>0.6523529291152954</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6699211597442627</v>
+        <v>0.1518043875694275</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>701</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8861607313156128</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9687500596046448</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5428174734115601</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2074210941791534</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>702</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8504464626312256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7633928656578064</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9866071939468384</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6813561916351318</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07659416645765305</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>703</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7633928656578064</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8504464626312256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9455357789993286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3913406431674957</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2479635179042816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>704</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8549107313156128</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9187500476837158</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4962838292121887</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2547851800918579</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>705</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8504464626312256</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8504464626312256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9553571939468384</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4770869016647339</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2382462322711945</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>706</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7276785373687744</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6183035373687744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9642857313156128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5354057550430298</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2390365898609161</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>707</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7477678656578064</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7433035373687744</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9598214626312256</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4598142504692078</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2437976896762848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>708</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7678571343421936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7678571343421936</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9687500596046448</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4071852564811707</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2102293372154236</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>709</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8504464626312256</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8348214626312256</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.973214328289032</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3499482274055481</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2036471515893936</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/seed_averaging.xlsx
+++ b/notebooks/seed_averaging.xlsx
@@ -1,37 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdsar\Documents\GitHub\OMICRON\notebooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F139A86-7EB6-4CBA-8348-859766E93482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1068" yWindow="1080" windowWidth="16464" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Test accuracy</t>
+  </si>
+  <si>
+    <t>Validation accuracy</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Validation loss</t>
+  </si>
+  <si>
+    <t>Train loss</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +112,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,69 +436,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Test accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Validation accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Validation loss</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Train loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>333</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.7008928656578064</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.6428571343421936</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.7535714507102966</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7779805660247803</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>0.75357145071029663</v>
+      </c>
+      <c r="E2">
+        <v>0.77798056602478027</v>
+      </c>
+      <c r="F2">
         <v>0.6699211597442627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>700</v>
+      </c>
+      <c r="B3">
+        <v>0.8616071343421936</v>
+      </c>
+      <c r="C3">
+        <v>0.7946428656578064</v>
+      </c>
+      <c r="D3">
+        <v>0.93750005960464478</v>
+      </c>
+      <c r="E3">
+        <v>0.51678359508514404</v>
+      </c>
+      <c r="F3">
+        <v>0.26696079969406128</v>
+      </c>
+      <c r="H3">
+        <v>700</v>
+      </c>
+      <c r="I3">
+        <v>0.8147321343421936</v>
+      </c>
+      <c r="J3">
+        <v>0.640625</v>
+      </c>
+      <c r="K3">
+        <v>0.88392859697341919</v>
+      </c>
+      <c r="L3">
+        <v>0.59570157527923584</v>
+      </c>
+      <c r="M3">
+        <v>0.41888955235481262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>701</v>
+      </c>
+      <c r="B4">
+        <v>0.8147321343421936</v>
+      </c>
+      <c r="C4">
+        <v>0.81919646263122559</v>
+      </c>
+      <c r="D4">
+        <v>0.9392857551574707</v>
+      </c>
+      <c r="E4">
+        <v>0.54159200191497803</v>
+      </c>
+      <c r="F4">
+        <v>0.23167182505130771</v>
+      </c>
+      <c r="H4">
+        <v>701</v>
+      </c>
+      <c r="I4">
+        <v>0.85044646263122559</v>
+      </c>
+      <c r="J4">
+        <v>0.7522321343421936</v>
+      </c>
+      <c r="K4">
+        <v>0.88571429252624512</v>
+      </c>
+      <c r="L4">
+        <v>0.59716296195983887</v>
+      </c>
+      <c r="M4">
+        <v>0.38167348504066467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>702</v>
+      </c>
+      <c r="B5">
+        <v>0.7477678656578064</v>
+      </c>
+      <c r="C5">
+        <v>0.69642853736877441</v>
+      </c>
+      <c r="D5">
+        <v>0.96428573131561279</v>
+      </c>
+      <c r="E5">
+        <v>0.75755703449249268</v>
+      </c>
+      <c r="F5">
+        <v>0.19955000281333921</v>
+      </c>
+      <c r="H5">
+        <v>702</v>
+      </c>
+      <c r="I5">
+        <v>0.68080353736877441</v>
+      </c>
+      <c r="J5">
+        <v>0.59375</v>
+      </c>
+      <c r="K5">
+        <v>0.90625005960464478</v>
+      </c>
+      <c r="L5">
+        <v>0.72296774387359619</v>
+      </c>
+      <c r="M5">
+        <v>0.35390967130661011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>703</v>
+      </c>
+      <c r="B6">
+        <v>0.83928573131561279</v>
+      </c>
+      <c r="C6">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="D6">
+        <v>0.99107146263122559</v>
+      </c>
+      <c r="E6">
+        <v>0.35272270441055298</v>
+      </c>
+      <c r="F6">
+        <v>0.13799396157264709</v>
+      </c>
+      <c r="H6">
+        <v>703</v>
+      </c>
+      <c r="I6">
+        <v>0.74107146263122559</v>
+      </c>
+      <c r="J6">
+        <v>0.75669646263122559</v>
+      </c>
+      <c r="K6">
+        <v>0.80535715818405151</v>
+      </c>
+      <c r="L6">
+        <v>0.48186576366424561</v>
+      </c>
+      <c r="M6">
+        <v>0.40693676471710211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>704</v>
+      </c>
+      <c r="B7">
+        <v>0.7477678656578064</v>
+      </c>
+      <c r="C7">
+        <v>0.7522321343421936</v>
+      </c>
+      <c r="D7">
+        <v>0.98214292526245117</v>
+      </c>
+      <c r="E7">
+        <v>0.62150585651397705</v>
+      </c>
+      <c r="F7">
+        <v>0.19415649771690369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>705</v>
+      </c>
+      <c r="B8">
+        <v>0.85491073131561279</v>
+      </c>
+      <c r="C8">
+        <v>0.81919646263122559</v>
+      </c>
+      <c r="D8">
+        <v>0.96428573131561279</v>
+      </c>
+      <c r="E8">
+        <v>0.51729309558868408</v>
+      </c>
+      <c r="F8">
+        <v>0.21059480309486389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>706</v>
+      </c>
+      <c r="B9">
+        <v>0.7477678656578064</v>
+      </c>
+      <c r="C9">
+        <v>0.7165178656578064</v>
+      </c>
+      <c r="D9">
+        <v>0.9392857551574707</v>
+      </c>
+      <c r="E9">
+        <v>0.43389409780502319</v>
+      </c>
+      <c r="F9">
+        <v>0.25799095630645752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>707</v>
+      </c>
+      <c r="B10">
+        <v>0.90625</v>
+      </c>
+      <c r="C10">
+        <v>0.7633928656578064</v>
+      </c>
+      <c r="D10">
+        <v>0.95535719394683838</v>
+      </c>
+      <c r="E10">
+        <v>0.45493191480636602</v>
+      </c>
+      <c r="F10">
+        <v>0.23789997398853299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>708</v>
+      </c>
+      <c r="B11">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="C11">
+        <v>0.7678571343421936</v>
+      </c>
+      <c r="D11">
+        <v>0.94821429252624512</v>
+      </c>
+      <c r="E11">
+        <v>0.47034925222396851</v>
+      </c>
+      <c r="F11">
+        <v>0.25039765238761902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>709</v>
+      </c>
+      <c r="B12">
+        <v>0.7790178656578064</v>
+      </c>
+      <c r="C12">
+        <v>0.7522321343421936</v>
+      </c>
+      <c r="D12">
+        <v>0.94642859697341919</v>
+      </c>
+      <c r="E12">
+        <v>0.47853535413742071</v>
+      </c>
+      <c r="F12">
+        <v>0.2381889820098877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.80825893282890315</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="0">AVERAGE(C3:C12)</f>
+        <v>0.76651785969734187</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.95678575038909908</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.51451649069786076</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.222540545463562</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/seed_averaging.xlsx
+++ b/notebooks/seed_averaging.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,26 @@
           <t>Train loss</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>True Negative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>False Negative</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>False Positive</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>True Positive</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +504,10 @@
       <c r="F2" t="n">
         <v>0.1518043875694275</v>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +528,10 @@
       <c r="F3" t="n">
         <v>0.2074210941791534</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +552,10 @@
       <c r="F4" t="n">
         <v>0.07659416645765305</v>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +576,10 @@
       <c r="F5" t="n">
         <v>0.2479635179042816</v>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +600,10 @@
       <c r="F6" t="n">
         <v>0.2547851800918579</v>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +624,10 @@
       <c r="F7" t="n">
         <v>0.2382462322711945</v>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +648,10 @@
       <c r="F8" t="n">
         <v>0.2390365898609161</v>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +672,10 @@
       <c r="F9" t="n">
         <v>0.2437976896762848</v>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +696,10 @@
       <c r="F10" t="n">
         <v>0.2102293372154236</v>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -663,6 +719,210 @@
       </c>
       <c r="F11" t="n">
         <v>0.2036471515893936</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>700</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7834821343421936</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9508929252624512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6614151000976562</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2304415255784988</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>706</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8348214626312256</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6852678656578064</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.941964328289032</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5984439849853516</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2331523597240448</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>706</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8348214626312256</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6852678656578064</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.941964328289032</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5984439849853516</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2331523597240448</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>705</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8861607313156128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7477678656578064</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9330357313156128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6518396139144897</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2472776770591736</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.695652186870575</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02173913083970547</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1521739065647125</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1304347813129425</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>701</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8549107313156128</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8080357313156128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9464285969734192</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4263037145137787</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2261995673179626</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.782608687877655</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04347826167941093</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.08695652335882187</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.08695652335882187</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>702</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7633928656578064</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7120535373687744</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9776785969734192</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6068744659423828</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1929972916841507</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.695652186870575</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06521739065647125</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.06521739065647125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1739130467176437</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>703</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8035714626312256</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7678571343421936</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9687500596046448</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4140223264694214</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.194918230175972</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6739130616188049</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.08695652335882187</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1304347813129425</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1086956486105919</v>
       </c>
     </row>
   </sheetData>
